--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H2">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I2">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J2">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.606496900201283</v>
+        <v>0.6354703333333334</v>
       </c>
       <c r="N2">
-        <v>0.606496900201283</v>
+        <v>1.906411</v>
       </c>
       <c r="O2">
-        <v>0.4041237572874081</v>
+        <v>0.3462157388868458</v>
       </c>
       <c r="P2">
-        <v>0.4041237572874081</v>
+        <v>0.3462157388868458</v>
       </c>
       <c r="Q2">
-        <v>0.8276204067742243</v>
+        <v>3.707661191888333</v>
       </c>
       <c r="R2">
-        <v>0.8276204067742243</v>
+        <v>33.368950726995</v>
       </c>
       <c r="S2">
-        <v>0.03604456614211247</v>
+        <v>0.06782382451000982</v>
       </c>
       <c r="T2">
-        <v>0.03604456614211247</v>
+        <v>0.06782382451000982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H3">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I3">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J3">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.274977487171612</v>
+        <v>0.4145883333333333</v>
       </c>
       <c r="N3">
-        <v>0.274977487171612</v>
+        <v>1.243765</v>
       </c>
       <c r="O3">
-        <v>0.1832242427757866</v>
+        <v>0.22587522757506</v>
       </c>
       <c r="P3">
-        <v>0.1832242427757866</v>
+        <v>0.22587522757506</v>
       </c>
       <c r="Q3">
-        <v>0.3752318927123878</v>
+        <v>2.418921849658333</v>
       </c>
       <c r="R3">
-        <v>0.3752318927123878</v>
+        <v>21.770296646925</v>
       </c>
       <c r="S3">
-        <v>0.01634211851809904</v>
+        <v>0.04424906229123329</v>
       </c>
       <c r="T3">
-        <v>0.01634211851809904</v>
+        <v>0.04424906229123329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H4">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I4">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J4">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.161489201861642</v>
+        <v>0.3063973333333334</v>
       </c>
       <c r="N4">
-        <v>0.161489201861642</v>
+        <v>0.919192</v>
       </c>
       <c r="O4">
-        <v>0.1076042152829018</v>
+        <v>0.166930812641596</v>
       </c>
       <c r="P4">
-        <v>0.1076042152829018</v>
+        <v>0.166930812641596</v>
       </c>
       <c r="Q4">
-        <v>0.2203667634410347</v>
+        <v>1.787679837293333</v>
       </c>
       <c r="R4">
-        <v>0.2203667634410347</v>
+        <v>16.08911853564</v>
       </c>
       <c r="S4">
-        <v>0.00959742451413537</v>
+        <v>0.03270182395034699</v>
       </c>
       <c r="T4">
-        <v>0.00959742451413537</v>
+        <v>0.03270182395034699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H5">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I5">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J5">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.457806630938264</v>
+        <v>0.479019</v>
       </c>
       <c r="N5">
-        <v>0.457806630938264</v>
+        <v>1.437057</v>
       </c>
       <c r="O5">
-        <v>0.3050477846539035</v>
+        <v>0.2609782208964982</v>
       </c>
       <c r="P5">
-        <v>0.3050477846539035</v>
+        <v>0.2609782208964982</v>
       </c>
       <c r="Q5">
-        <v>0.62471895568686</v>
+        <v>2.794843540785</v>
       </c>
       <c r="R5">
-        <v>0.62471895568686</v>
+        <v>25.153591867065</v>
       </c>
       <c r="S5">
-        <v>0.02720779180186323</v>
+        <v>0.05112575503334862</v>
       </c>
       <c r="T5">
-        <v>0.02720779180186323</v>
+        <v>0.05112575503334862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H6">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I6">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J6">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.606496900201283</v>
+        <v>0.6354703333333334</v>
       </c>
       <c r="N6">
-        <v>0.606496900201283</v>
+        <v>1.906411</v>
       </c>
       <c r="O6">
-        <v>0.4041237572874081</v>
+        <v>0.3462157388868458</v>
       </c>
       <c r="P6">
-        <v>0.4041237572874081</v>
+        <v>0.3462157388868458</v>
       </c>
       <c r="Q6">
-        <v>0.3482216261534195</v>
+        <v>0.894503292488</v>
       </c>
       <c r="R6">
-        <v>0.3482216261534195</v>
+        <v>8.050529632391999</v>
       </c>
       <c r="S6">
-        <v>0.01516576601212898</v>
+        <v>0.01636304699740734</v>
       </c>
       <c r="T6">
-        <v>0.01516576601212898</v>
+        <v>0.01636304699740733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H7">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I7">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J7">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.274977487171612</v>
+        <v>0.4145883333333333</v>
       </c>
       <c r="N7">
-        <v>0.274977487171612</v>
+        <v>1.243765</v>
       </c>
       <c r="O7">
-        <v>0.1832242427757866</v>
+        <v>0.22587522757506</v>
       </c>
       <c r="P7">
-        <v>0.1832242427757866</v>
+        <v>0.22587522757506</v>
       </c>
       <c r="Q7">
-        <v>0.1578789730115709</v>
+        <v>0.58358448812</v>
       </c>
       <c r="R7">
-        <v>0.1578789730115709</v>
+        <v>5.252260393079999</v>
       </c>
       <c r="S7">
-        <v>0.006875953080162245</v>
+        <v>0.01067544466997428</v>
       </c>
       <c r="T7">
-        <v>0.006875953080162245</v>
+        <v>0.01067544466997428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H8">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I8">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J8">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.161489201861642</v>
+        <v>0.3063973333333334</v>
       </c>
       <c r="N8">
-        <v>0.161489201861642</v>
+        <v>0.919192</v>
       </c>
       <c r="O8">
-        <v>0.1076042152829018</v>
+        <v>0.166930812641596</v>
       </c>
       <c r="P8">
-        <v>0.1076042152829018</v>
+        <v>0.166930812641596</v>
       </c>
       <c r="Q8">
-        <v>0.09271940624892883</v>
+        <v>0.431292239936</v>
       </c>
       <c r="R8">
-        <v>0.09271940624892883</v>
+        <v>3.881630159424</v>
       </c>
       <c r="S8">
-        <v>0.004038120307138125</v>
+        <v>0.00788957989417856</v>
       </c>
       <c r="T8">
-        <v>0.004038120307138125</v>
+        <v>0.00788957989417856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H9">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I9">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J9">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.457806630938264</v>
+        <v>0.479019</v>
       </c>
       <c r="N9">
-        <v>0.457806630938264</v>
+        <v>1.437057</v>
       </c>
       <c r="O9">
-        <v>0.3050477846539035</v>
+        <v>0.2609782208964982</v>
       </c>
       <c r="P9">
-        <v>0.3050477846539035</v>
+        <v>0.2609782208964982</v>
       </c>
       <c r="Q9">
-        <v>0.2628507572524003</v>
+        <v>0.674278640856</v>
       </c>
       <c r="R9">
-        <v>0.2628507572524003</v>
+        <v>6.068507767703999</v>
       </c>
       <c r="S9">
-        <v>0.01144768957814388</v>
+        <v>0.01233450249130602</v>
       </c>
       <c r="T9">
-        <v>0.01144768957814388</v>
+        <v>0.01233450249130602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3607544454876</v>
+        <v>0.8638146666666667</v>
       </c>
       <c r="H10">
-        <v>13.3607544454876</v>
+        <v>2.591444</v>
       </c>
       <c r="I10">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="J10">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.606496900201283</v>
+        <v>0.6354703333333334</v>
       </c>
       <c r="N10">
-        <v>0.606496900201283</v>
+        <v>1.906411</v>
       </c>
       <c r="O10">
-        <v>0.4041237572874081</v>
+        <v>0.3462157388868458</v>
       </c>
       <c r="P10">
-        <v>0.4041237572874081</v>
+        <v>0.3462157388868458</v>
       </c>
       <c r="Q10">
-        <v>8.103256155538741</v>
+        <v>0.5489285941648889</v>
       </c>
       <c r="R10">
-        <v>8.103256155538741</v>
+        <v>4.940357347484</v>
       </c>
       <c r="S10">
-        <v>0.3529134251331666</v>
+        <v>0.01004148834327663</v>
       </c>
       <c r="T10">
-        <v>0.3529134251331666</v>
+        <v>0.01004148834327663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.3607544454876</v>
+        <v>0.8638146666666667</v>
       </c>
       <c r="H11">
-        <v>13.3607544454876</v>
+        <v>2.591444</v>
       </c>
       <c r="I11">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="J11">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.274977487171612</v>
+        <v>0.4145883333333333</v>
       </c>
       <c r="N11">
-        <v>0.274977487171612</v>
+        <v>1.243765</v>
       </c>
       <c r="O11">
-        <v>0.1832242427757866</v>
+        <v>0.22587522757506</v>
       </c>
       <c r="P11">
-        <v>0.1832242427757866</v>
+        <v>0.22587522757506</v>
       </c>
       <c r="Q11">
-        <v>3.673906684137125</v>
+        <v>0.3581274829622222</v>
       </c>
       <c r="R11">
-        <v>3.673906684137125</v>
+        <v>3.22314734666</v>
       </c>
       <c r="S11">
-        <v>0.1600061711775253</v>
+        <v>0.006551185315902736</v>
       </c>
       <c r="T11">
-        <v>0.1600061711775253</v>
+        <v>0.006551185315902737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.3607544454876</v>
+        <v>0.8638146666666667</v>
       </c>
       <c r="H12">
-        <v>13.3607544454876</v>
+        <v>2.591444</v>
       </c>
       <c r="I12">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="J12">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.161489201861642</v>
+        <v>0.3063973333333334</v>
       </c>
       <c r="N12">
-        <v>0.161489201861642</v>
+        <v>0.919192</v>
       </c>
       <c r="O12">
-        <v>0.1076042152829018</v>
+        <v>0.166930812641596</v>
       </c>
       <c r="P12">
-        <v>0.1076042152829018</v>
+        <v>0.166930812641596</v>
       </c>
       <c r="Q12">
-        <v>2.157617571671178</v>
+        <v>0.2646705103608889</v>
       </c>
       <c r="R12">
-        <v>2.157617571671178</v>
+        <v>2.382034593248</v>
       </c>
       <c r="S12">
-        <v>0.0939686704616283</v>
+        <v>0.004841587544990629</v>
       </c>
       <c r="T12">
-        <v>0.0939686704616283</v>
+        <v>0.004841587544990629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8638146666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.591444</v>
+      </c>
+      <c r="I13">
+        <v>0.02900355823095177</v>
+      </c>
+      <c r="J13">
+        <v>0.02900355823095177</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.479019</v>
+      </c>
+      <c r="N13">
+        <v>1.437057</v>
+      </c>
+      <c r="O13">
+        <v>0.2609782208964982</v>
+      </c>
+      <c r="P13">
+        <v>0.2609782208964982</v>
+      </c>
+      <c r="Q13">
+        <v>0.4137836378120001</v>
+      </c>
+      <c r="R13">
+        <v>3.724052740308</v>
+      </c>
+      <c r="S13">
+        <v>0.00756929702678178</v>
+      </c>
+      <c r="T13">
+        <v>0.00756929702678178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H14">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I14">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J14">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6354703333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.906411</v>
+      </c>
+      <c r="O14">
+        <v>0.3462157388868458</v>
+      </c>
+      <c r="P14">
+        <v>0.3462157388868458</v>
+      </c>
+      <c r="Q14">
+        <v>13.77515692822822</v>
+      </c>
+      <c r="R14">
+        <v>123.976412354054</v>
+      </c>
+      <c r="S14">
+        <v>0.251987379036152</v>
+      </c>
+      <c r="T14">
+        <v>0.251987379036152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H15">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I15">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J15">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4145883333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.243765</v>
+      </c>
+      <c r="O15">
+        <v>0.22587522757506</v>
+      </c>
+      <c r="P15">
+        <v>0.22587522757506</v>
+      </c>
+      <c r="Q15">
+        <v>8.987074695245555</v>
+      </c>
+      <c r="R15">
+        <v>80.88367225720999</v>
+      </c>
+      <c r="S15">
+        <v>0.1643995352979497</v>
+      </c>
+      <c r="T15">
+        <v>0.1643995352979497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.3607544454876</v>
-      </c>
-      <c r="H13">
-        <v>13.3607544454876</v>
-      </c>
-      <c r="I13">
-        <v>0.8732805700462167</v>
-      </c>
-      <c r="J13">
-        <v>0.8732805700462167</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.457806630938264</v>
-      </c>
-      <c r="N13">
-        <v>0.457806630938264</v>
-      </c>
-      <c r="O13">
-        <v>0.3050477846539035</v>
-      </c>
-      <c r="P13">
-        <v>0.3050477846539035</v>
-      </c>
-      <c r="Q13">
-        <v>6.116641979482112</v>
-      </c>
-      <c r="R13">
-        <v>6.116641979482112</v>
-      </c>
-      <c r="S13">
-        <v>0.2663923032738965</v>
-      </c>
-      <c r="T13">
-        <v>0.2663923032738965</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H16">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I16">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J16">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3063973333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.919192</v>
+      </c>
+      <c r="O16">
+        <v>0.166930812641596</v>
+      </c>
+      <c r="P16">
+        <v>0.166930812641596</v>
+      </c>
+      <c r="Q16">
+        <v>6.641807064254222</v>
+      </c>
+      <c r="R16">
+        <v>59.776263578288</v>
+      </c>
+      <c r="S16">
+        <v>0.1214978212520798</v>
+      </c>
+      <c r="T16">
+        <v>0.1214978212520798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H17">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I17">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J17">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.479019</v>
+      </c>
+      <c r="N17">
+        <v>1.437057</v>
+      </c>
+      <c r="O17">
+        <v>0.2609782208964982</v>
+      </c>
+      <c r="P17">
+        <v>0.2609782208964982</v>
+      </c>
+      <c r="Q17">
+        <v>10.383745000322</v>
+      </c>
+      <c r="R17">
+        <v>93.45370500289799</v>
+      </c>
+      <c r="S17">
+        <v>0.1899486663450618</v>
+      </c>
+      <c r="T17">
+        <v>0.1899486663450618</v>
       </c>
     </row>
   </sheetData>
